--- a/wash_P/VIN.xlsx
+++ b/wash_P/VIN.xlsx
@@ -68586,7 +68586,7 @@
         <v>0</v>
       </c>
       <c r="DY22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ22" t="n">
         <v>0</v>
